--- a/Code/Results/Cases/Case_0_86/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_86/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2.452853612092677</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4.132973476626779</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>40.53958805602667</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>28.90605254904693</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.596734014040967</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>23.06588236084238</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>58.11329988573922</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2.642922716432259</v>
+      </c>
+      <c r="D3">
+        <v>4.374895435274232</v>
+      </c>
+      <c r="E3">
+        <v>37.84953711209423</v>
+      </c>
+      <c r="F3">
+        <v>28.89103176391161</v>
+      </c>
+      <c r="G3">
+        <v>3.608374020036821</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>23.19629148064137</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>54.66126007161589</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2.762774970309129</v>
+      </c>
+      <c r="D4">
+        <v>4.53103352952253</v>
+      </c>
+      <c r="E4">
+        <v>36.10022066926174</v>
+      </c>
+      <c r="F4">
+        <v>28.9446409275834</v>
+      </c>
+      <c r="G4">
+        <v>3.615765084026455</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>23.3218240280835</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>52.43253662012714</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2.812432057080239</v>
+      </c>
+      <c r="D5">
+        <v>4.596470799456315</v>
+      </c>
+      <c r="E5">
+        <v>35.36262641115863</v>
+      </c>
+      <c r="F5">
+        <v>28.98154594170184</v>
+      </c>
+      <c r="G5">
+        <v>3.618839643306795</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>23.38381057761618</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>51.49707155386722</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2.820727573393598</v>
+      </c>
+      <c r="D6">
+        <v>4.607443413860661</v>
+      </c>
+      <c r="E6">
+        <v>35.23865023891867</v>
+      </c>
+      <c r="F6">
+        <v>28.98856089258912</v>
+      </c>
+      <c r="G6">
+        <v>3.619353990891082</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>23.39473983064988</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>51.3401008875377</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2.763441326447876</v>
+      </c>
+      <c r="D7">
+        <v>4.531908827620143</v>
+      </c>
+      <c r="E7">
+        <v>36.09037360471138</v>
+      </c>
+      <c r="F7">
+        <v>28.94507868455429</v>
+      </c>
+      <c r="G7">
+        <v>3.615806293339221</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>23.32261694649955</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>52.42003057034744</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2.517751009043471</v>
+      </c>
+      <c r="D8">
+        <v>4.214742806968059</v>
+      </c>
+      <c r="E8">
+        <v>39.63220314144295</v>
+      </c>
+      <c r="F8">
+        <v>28.88740454341836</v>
+      </c>
+      <c r="G8">
+        <v>3.600697621162451</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>23.10105495582717</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>56.94578668598195</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>2.059758772927768</v>
+      </c>
+      <c r="D9">
+        <v>3.65922306706458</v>
+      </c>
+      <c r="E9">
+        <v>45.81199965397499</v>
+      </c>
+      <c r="F9">
+        <v>29.30248708327816</v>
+      </c>
+      <c r="G9">
+        <v>3.572944905023169</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>23.0530919184265</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>64.95022696963751</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1.985321597708414</v>
+      </c>
+      <c r="D10">
+        <v>3.303661769998591</v>
+      </c>
+      <c r="E10">
+        <v>49.89817649630449</v>
+      </c>
+      <c r="F10">
+        <v>29.96372417934971</v>
+      </c>
+      <c r="G10">
+        <v>3.553607408862773</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>23.28629403390561</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>70.29989877399525</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2.120454189051054</v>
+      </c>
+      <c r="D11">
+        <v>3.157402556705945</v>
+      </c>
+      <c r="E11">
+        <v>51.66137088544696</v>
+      </c>
+      <c r="F11">
+        <v>30.34725007992525</v>
+      </c>
+      <c r="G11">
+        <v>3.545017186257201</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>23.45674892189719</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>72.61942627852545</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>2.171366301341497</v>
+      </c>
+      <c r="D12">
+        <v>3.104725336501413</v>
+      </c>
+      <c r="E12">
+        <v>52.31554270869431</v>
+      </c>
+      <c r="F12">
+        <v>30.50467563467268</v>
+      </c>
+      <c r="G12">
+        <v>3.541792071652507</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>23.53097057632592</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>73.48152459158645</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>2.160412439585369</v>
+      </c>
+      <c r="D13">
+        <v>3.115940763137115</v>
+      </c>
+      <c r="E13">
+        <v>52.17525210055579</v>
+      </c>
+      <c r="F13">
+        <v>30.47022528444157</v>
+      </c>
+      <c r="G13">
+        <v>3.542485452048808</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>23.51454940925267</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>73.29657651172401</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>2.124647756933076</v>
+      </c>
+      <c r="D14">
+        <v>3.153011260539153</v>
+      </c>
+      <c r="E14">
+        <v>51.71545937628699</v>
+      </c>
+      <c r="F14">
+        <v>30.35995587037261</v>
+      </c>
+      <c r="G14">
+        <v>3.544751307911211</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>23.46265914059651</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>72.6906764358444</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>2.102708104417526</v>
+      </c>
+      <c r="D15">
+        <v>3.176087238509178</v>
+      </c>
+      <c r="E15">
+        <v>51.43207074275418</v>
+      </c>
+      <c r="F15">
+        <v>30.29400761542801</v>
+      </c>
+      <c r="G15">
+        <v>3.546142774450904</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>23.43214598006118</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>72.31743316447239</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1.976452102621055</v>
+      </c>
+      <c r="D16">
+        <v>3.313569928280215</v>
+      </c>
+      <c r="E16">
+        <v>49.78104354592574</v>
+      </c>
+      <c r="F16">
+        <v>29.94035217277547</v>
+      </c>
+      <c r="G16">
+        <v>3.554172797977919</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>23.27648689416335</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>70.14602838050143</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1.898498228530487</v>
+      </c>
+      <c r="D17">
+        <v>3.402179644096786</v>
+      </c>
+      <c r="E17">
+        <v>48.74386625559487</v>
+      </c>
+      <c r="F17">
+        <v>29.74482722410506</v>
+      </c>
+      <c r="G17">
+        <v>3.559150553235381</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>23.19779951782898</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>68.7848167109573</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1.877520303686157</v>
+      </c>
+      <c r="D18">
+        <v>3.454567500392048</v>
+      </c>
+      <c r="E18">
+        <v>48.13829338862045</v>
+      </c>
+      <c r="F18">
+        <v>29.64014177201924</v>
+      </c>
+      <c r="G18">
+        <v>3.562033183558993</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>23.15857837286779</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>67.99113571270556</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1.893924851252479</v>
+      </c>
+      <c r="D19">
+        <v>3.472536789411445</v>
+      </c>
+      <c r="E19">
+        <v>47.93170120621775</v>
+      </c>
+      <c r="F19">
+        <v>29.60602180246072</v>
+      </c>
+      <c r="G19">
+        <v>3.563012606648466</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>23.14632196454333</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>67.72055925953102</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1.906816442612625</v>
+      </c>
+      <c r="D20">
+        <v>3.392596763111742</v>
+      </c>
+      <c r="E20">
+        <v>48.85520696175767</v>
+      </c>
+      <c r="F20">
+        <v>29.76483400320945</v>
+      </c>
+      <c r="G20">
+        <v>3.558618651773112</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>23.20554780467142</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>68.93083148185541</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>2.135159471318616</v>
+      </c>
+      <c r="D21">
+        <v>3.142044756823472</v>
+      </c>
+      <c r="E21">
+        <v>51.85087638192523</v>
+      </c>
+      <c r="F21">
+        <v>30.39201189395233</v>
+      </c>
+      <c r="G21">
+        <v>3.544085031852116</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>23.47763501617979</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>72.86908378821163</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>2.282899408964449</v>
+      </c>
+      <c r="D22">
+        <v>3.248435072082586</v>
+      </c>
+      <c r="E22">
+        <v>53.73008280970403</v>
+      </c>
+      <c r="F22">
+        <v>30.87304571422992</v>
+      </c>
+      <c r="G22">
+        <v>3.534747631909509</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>23.71199409339489</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>75.34830267038348</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>2.2041725696581</v>
+      </c>
+      <c r="D23">
+        <v>3.127878474907865</v>
+      </c>
+      <c r="E23">
+        <v>52.73422812486774</v>
+      </c>
+      <c r="F23">
+        <v>30.60972719613606</v>
+      </c>
+      <c r="G23">
+        <v>3.539717089154557</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>23.5816185471833</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>74.03369851686183</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1.903056449500362</v>
+      </c>
+      <c r="D24">
+        <v>3.396924717387997</v>
+      </c>
+      <c r="E24">
+        <v>48.80489876976848</v>
+      </c>
+      <c r="F24">
+        <v>29.75576490211755</v>
+      </c>
+      <c r="G24">
+        <v>3.558859059332752</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>23.20202609422159</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>68.86485279559417</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>2.181284018893509</v>
+      </c>
+      <c r="D25">
+        <v>3.801364874063954</v>
+      </c>
+      <c r="E25">
+        <v>44.22089657325948</v>
+      </c>
+      <c r="F25">
+        <v>29.12976952224779</v>
+      </c>
+      <c r="G25">
+        <v>3.580261011850049</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>23.02115391838134</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>62.87830946251158</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
